--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UipathProjects\ProcessStarter.RPA.Uipath.Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C332F3-7367-46F8-8E10-03E1256C771C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73074D4-826D-4A40-9E70-6A47FE4F43FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Your company domain email</t>
   </si>
   <si>
-    <t>73008d98-df23-4d5e-bb39-9e15a3637c50</t>
-  </si>
-  <si>
-    <t>lN0l@Y9?9H6^RsiCDOiX(mM41Y$_ZJ@2?kj69)~IF^~@9@T^eAo%cf6dNPM_(uid</t>
-  </si>
-  <si>
     <t>AuthClientID</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>AuthGrantType</t>
   </si>
   <si>
-    <t>client_credentials</t>
-  </si>
-  <si>
     <t>AuthScope</t>
   </si>
   <si>
@@ -72,12 +63,6 @@
     <t>TenantId</t>
   </si>
   <si>
-    <t>helpathomev2</t>
-  </si>
-  <si>
-    <t>DefaultTenant</t>
-  </si>
-  <si>
     <t>OrganizationId</t>
   </si>
   <si>
@@ -159,9 +144,6 @@
     <t>OR.Execution.Read OR.Folders.Read OR.Jobs.Read OR.Jobs.Write OR.Machines.Read OR.Queues.Read OR.Robots.Read OR.Users OR.Users.Read OR.Administration OR.Administration.Read</t>
   </si>
   <si>
-    <t>HelpAtHome</t>
-  </si>
-  <si>
     <t>CreatorsName</t>
   </si>
   <si>
@@ -172,6 +154,9 @@
   </si>
   <si>
     <t>https://github.com/MasterOfLogic1/EasyProcessRunner.RPA.Uipath.Process</t>
+  </si>
+  <si>
+    <t>MasterOfLogic Inc</t>
   </si>
 </sst>
 </file>
@@ -254,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -277,9 +262,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +579,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -644,73 +626,62 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="14.5">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="14.5">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4">
-        <v>629159</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -719,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -727,10 +698,10 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -738,10 +709,10 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1760,134 +1731,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1922,22 +1893,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
